--- a/output.xlsx
+++ b/output.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Table 1</t>
   </si>
@@ -536,6 +536,97 @@
   <si>
     <t>IMPORTO (*)</t>
   </si>
+  <si>
+    <t>TOTALE €</t>
+  </si>
+  <si>
+    <t>APERTO O ESTERORE DEI BENI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N. COLLI   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PESO KG   </t>
+  </si>
+  <si>
+    <t>PORTO</t>
+  </si>
+  <si>
+    <t>Consegna o inizio trasporto a mezzo  cedente/cessionario</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>__|__</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>__|__</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>__|__</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>___|___|___|__</t>
+    </r>
+  </si>
+  <si>
+    <t>FIRMA DEL CEDENTE</t>
+  </si>
+  <si>
+    <t>ANNOTAZIONI-VARIZIONI</t>
+  </si>
+  <si>
+    <t>NUMERO PROGRESSIVO</t>
+  </si>
+  <si>
+    <t>FIRMA DEL CESSIONARIO</t>
+  </si>
+  <si>
+    <t>(*) Solo in caso di utilizzo in sostituzione della certificazione fiscale</t>
+  </si>
 </sst>
 </file>
 
@@ -544,7 +635,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -657,6 +748,28 @@
       <color indexed="12"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="14"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="14"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -678,7 +791,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -701,13 +814,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -741,6 +899,33 @@
     <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="21" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -763,6 +948,7 @@
       <rgbColor rgb="ffd1f7c8"/>
       <rgbColor rgb="fffefffe"/>
       <rgbColor rgb="ff60d836"/>
+      <rgbColor rgb="ff383941"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1791,7 +1977,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:G33"/>
+  <dimension ref="A2:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2118,8 +2304,106 @@
       <c r="F33" s="4"/>
       <c r="G33" s="10"/>
     </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" ht="25.9" customHeight="1">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" ht="25.9" customHeight="1">
+      <c r="A36" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" ht="27.35" customHeight="1">
+      <c r="A37" t="s" s="13">
+        <v>15</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s" s="15">
+        <v>17</v>
+      </c>
+      <c r="F37" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" ht="8.35" customHeight="1">
+      <c r="A38" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" ht="8.15" customHeight="1">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" t="s" s="11">
+        <v>21</v>
+      </c>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" ht="27.55" customHeight="1">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" ht="27.55" customHeight="1">
+      <c r="A41" t="s" s="17">
+        <v>22</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="39">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:C5"/>
     <mergeCell ref="A6:D9"/>
@@ -2150,9 +2434,18 @@
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B32:F32"/>
     <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="F37:G38"/>
+    <mergeCell ref="F39:G40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="A38:D40"/>
+    <mergeCell ref="A41:G41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="79" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/output.xlsx
+++ b/output.xlsx
@@ -11,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
-  <si>
-    <t>Table 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <r>
       <rPr>
@@ -865,15 +862,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -891,7 +885,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1977,7 +1971,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:G41"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1987,432 +1981,421 @@
     <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
+    <row r="1" ht="8.15" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" ht="8.15" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" t="s" s="5">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" ht="8" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" ht="8" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" ht="84" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" ht="8.15" customHeight="1">
+      <c r="A5" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" ht="8" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" ht="8" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" ht="84" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" ht="8.15" customHeight="1">
-      <c r="A6" t="s" s="3">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" t="s" s="6">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" ht="8" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" ht="8" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" ht="105" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" ht="30.6" customHeight="1">
+      <c r="A9" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" ht="8" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" ht="8" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" ht="105" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" ht="30.6" customHeight="1">
-      <c r="A10" t="s" s="3">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" t="s" s="7">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" ht="24.9" customHeight="1">
+      <c r="A10" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" ht="24.9" customHeight="1">
-      <c r="A11" t="s" s="8">
+      <c r="B10" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="B11" t="s" s="8">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" t="s" s="8">
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" ht="25.9" customHeight="1">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" t="s" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="10"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" ht="25.9" customHeight="1">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" t="s" s="5">
+      <c r="A35" t="s" s="10">
         <v>10</v>
       </c>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" ht="25.9" customHeight="1">
-      <c r="A36" t="s" s="11">
+      <c r="B35" s="3"/>
+      <c r="C35" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" t="s" s="11">
+      <c r="D35" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="D36" t="s" s="11">
+      <c r="E35" t="s" s="10">
         <v>13</v>
       </c>
-      <c r="E36" t="s" s="11">
+      <c r="F35" s="11"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" ht="27.35" customHeight="1">
+      <c r="A36" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="37" ht="27.35" customHeight="1">
-      <c r="A37" t="s" s="13">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" t="s" s="14">
+      <c r="E36" t="s" s="14">
         <v>16</v>
       </c>
-      <c r="E37" t="s" s="15">
+      <c r="F36" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="F37" t="s" s="11">
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" ht="8.35" customHeight="1">
+      <c r="A37" t="s" s="10">
         <v>18</v>
       </c>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" ht="8.35" customHeight="1">
-      <c r="A38" t="s" s="11">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" t="s" s="16">
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" ht="8.15" customHeight="1">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" ht="8.15" customHeight="1">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" t="s" s="11">
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" ht="27.55" customHeight="1">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" ht="27.55" customHeight="1">
+      <c r="A40" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" ht="27.55" customHeight="1">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" ht="27.55" customHeight="1">
-      <c r="A41" t="s" s="17">
-        <v>22</v>
-      </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="19"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:C5"/>
-    <mergeCell ref="A6:D9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D2:G5"/>
-    <mergeCell ref="E6:G9"/>
-    <mergeCell ref="D10:G10"/>
+  <mergeCells count="38">
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="A5:D8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D1:G4"/>
+    <mergeCell ref="E5:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B10:F10"/>
     <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B11:F11"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
@@ -2434,15 +2417,14 @@
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B32:F32"/>
     <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="F37:G38"/>
-    <mergeCell ref="F39:G40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="A38:D40"/>
-    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="F36:G37"/>
+    <mergeCell ref="F38:G39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="A37:D39"/>
+    <mergeCell ref="A40:G40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="79" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1971,7 +1971,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2269,124 +2269,97 @@
       <c r="F30" s="3"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" ht="20.05" customHeight="1">
+    <row r="31" ht="25.9" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="F31" t="s" s="4">
+        <v>9</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="3"/>
+    <row r="32" ht="25.9" customHeight="1">
+      <c r="A32" t="s" s="10">
+        <v>10</v>
+      </c>
       <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="C32" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="F32" s="11"/>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="3"/>
+    <row r="33" ht="27.35" customHeight="1">
+      <c r="A33" t="s" s="12">
+        <v>14</v>
+      </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" ht="25.9" customHeight="1">
-      <c r="A34" s="3"/>
+      <c r="D33" t="s" s="13">
+        <v>15</v>
+      </c>
+      <c r="E33" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="F33" t="s" s="10">
+        <v>17</v>
+      </c>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" ht="8.35" customHeight="1">
+      <c r="A34" t="s" s="10">
+        <v>18</v>
+      </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" t="s" s="4">
-        <v>9</v>
+      <c r="E34" t="s" s="15">
+        <v>19</v>
       </c>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" ht="25.9" customHeight="1">
-      <c r="A35" t="s" s="10">
-        <v>10</v>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" ht="8.15" customHeight="1">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" t="s" s="10">
+        <v>20</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="E35" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" ht="27.35" customHeight="1">
-      <c r="A36" t="s" s="12">
-        <v>14</v>
-      </c>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" ht="27.55" customHeight="1">
+      <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" t="s" s="13">
-        <v>15</v>
-      </c>
-      <c r="E36" t="s" s="14">
-        <v>16</v>
-      </c>
-      <c r="F36" t="s" s="10">
-        <v>17</v>
-      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" ht="8.35" customHeight="1">
-      <c r="A37" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" t="s" s="15">
-        <v>19</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" ht="8.15" customHeight="1">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" t="s" s="10">
-        <v>20</v>
-      </c>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" ht="27.55" customHeight="1">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" ht="27.55" customHeight="1">
-      <c r="A40" t="s" s="16">
+    <row r="37" ht="27.55" customHeight="1">
+      <c r="A37" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="18"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="35">
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:D8"/>
     <mergeCell ref="A9:C9"/>
@@ -2414,17 +2387,14 @@
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="B29:F29"/>
     <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="F36:G37"/>
-    <mergeCell ref="F38:G39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="A37:D39"/>
-    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="F35:G36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="A34:D36"/>
+    <mergeCell ref="A37:G37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="79" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -366,7 +366,7 @@
     <r>
       <rPr>
         <sz val="8"/>
-        <color indexed="9"/>
+        <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
       <t>LUOGO DI DESTINAZIONE</t>
@@ -374,7 +374,7 @@
     <r>
       <rPr>
         <sz val="6"/>
-        <color indexed="9"/>
+        <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
       <t xml:space="preserve">(se diverso dal domicilio deldestinatario)
@@ -402,7 +402,7 @@
       <rPr>
         <u val="single"/>
         <sz val="8"/>
-        <color indexed="9"/>
+        <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
       <t xml:space="preserve">_______________________________________________________________________
@@ -422,7 +422,7 @@
       <rPr>
         <u val="single"/>
         <sz val="8"/>
-        <color indexed="9"/>
+        <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
       <t xml:space="preserve">_______________________________________________________________________
@@ -442,7 +442,7 @@
       <rPr>
         <u val="single"/>
         <sz val="8"/>
-        <color indexed="9"/>
+        <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
       <t xml:space="preserve">_______________________________________________________________________
@@ -462,7 +462,7 @@
       <rPr>
         <u val="single"/>
         <sz val="8"/>
-        <color indexed="9"/>
+        <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
       <t>_______________________________________________________________________</t>
@@ -632,7 +632,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -716,11 +716,6 @@
     </font>
     <font>
       <sz val="6"/>
-      <color indexed="9"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="6"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -737,22 +732,22 @@
     </font>
     <font>
       <sz val="15"/>
-      <color indexed="12"/>
+      <color indexed="11"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="16"/>
-      <color indexed="12"/>
+      <color indexed="11"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="8"/>
-      <color indexed="14"/>
+      <color indexed="13"/>
       <name val="Menlo Regular"/>
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="14"/>
+      <color indexed="13"/>
       <name val="Menlo Regular"/>
     </font>
     <font>
@@ -783,7 +778,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -881,37 +876,37 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="16" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="21" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="20" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="20" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="21" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="20" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="20" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -939,7 +934,6 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="e5000000"/>
       <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffd1f7c8"/>
       <rgbColor rgb="fffefffe"/>
       <rgbColor rgb="ff60d836"/>
       <rgbColor rgb="ff383941"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -632,7 +632,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -731,11 +731,6 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color indexed="11"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color indexed="11"/>
       <name val="Helvetica Neue"/>
@@ -763,18 +758,12 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor auto="1"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -873,40 +862,40 @@
     <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="20" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="19" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="19" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="19" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="19" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2068,7 +2057,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" ht="24.9" customHeight="1">
+    <row r="10" ht="22.95" customHeight="1">
       <c r="A10" t="s" s="7">
         <v>6</v>
       </c>
